--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,286 +436,592 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>S.No</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Client Name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>PO No</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>2025-05</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>2025-07</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>2025-08</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2025-09</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2025-10</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2025-11</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2025-12</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2026-01</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>2026-02</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>2026-03</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>2026-04</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>2026-05</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>2026-06</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>2026-07</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>2026-08</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2026-09</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2026-10</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Fiona Inc</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1234567345</t>
-        </is>
-      </c>
       <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+        <v>34523</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>$16,000.00</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>5333.333333333333</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>$32,000.00</t>
+        </is>
       </c>
       <c r="H2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5333.333333333333</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>$32,000.00</t>
+        </is>
       </c>
       <c r="L2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>5333.333333333333</v>
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Fiona Inc</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1234567345</v>
       </c>
       <c r="D3" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G3" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H3" t="n">
-        <v>15000</v>
-      </c>
-      <c r="I3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Fiona Inc</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>$15,000.00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>$15,000.00</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fiona Inc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1234567345</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fiona Inc</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>$15,000.00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>$15,000.00</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fiona Inc</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>34523</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>32000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32000</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$16,000.00</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>$32,000.00</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>$32,000.00</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,80 +456,85 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>2025-07</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2025-08</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2025-09</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2025-10</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2025-11</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2025-12</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>2026-01</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>2026-02</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>2026-03</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>2026-04</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>2026-05</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>2026-06</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>2026-07</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2026-08</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2026-09</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>2026-10</t>
         </is>
@@ -544,13 +549,13 @@
           <t>Fiona Inc</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>34523</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$16,000.00</t>
-        </is>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1234567345</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -558,51 +563,50 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>$32,000.00</t>
-        </is>
+      <c r="G2" t="n">
+        <v>5333.33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>$32,000.00</t>
-        </is>
+        <v>5333.33</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5333.33</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5333.33</v>
       </c>
     </row>
     <row r="3">
@@ -614,8 +618,10 @@
           <t>Fiona Inc</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1234567345</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -623,80 +629,53 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
+      <c r="F3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -708,49 +687,37 @@
           <t>Fiona Inc</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1234567890</v>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>34523</t>
+        </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>$15,000.00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>$15,000.00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
+        <v>16000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>32000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -776,252 +743,7 @@
       <c r="T4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fiona Inc</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1234567345</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fiona Inc</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>$15,000.00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>$15,000.00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fiona Inc</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>34523</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$16,000.00</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>$32,000.00</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>$32,000.00</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -55,11 +55,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -554,58 +555,58 @@
           <t>1234567345</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="H2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="O2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="U2" s="2" t="n">
         <v>5333.33</v>
       </c>
     </row>
@@ -623,58 +624,58 @@
           <t>1234567890</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" s="2" t="n">
         <v>15000</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" s="2" t="n">
         <v>10000</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -692,58 +693,58 @@
           <t>34523</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="2" t="n">
         <v>16000</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>32000</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
         <v>32000</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,6 +748,144 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nimbus Holdings Inc.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AMP-PO-2025-001</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>4920.6</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>6560.8</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>4920.6</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nimbus Holdings Inc.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>PO-3425</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>8200</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>4920</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>3280</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -748,144 +748,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nimbus Holdings Inc.</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>AMP-PO-2025-001</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>4920.6</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>6560.8</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>4920.6</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nimbus Holdings Inc.</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>PO-3425</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>8200</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>4920</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>3280</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,92 +452,107 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>2025-05</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>2025-06</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2025-07</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2025-08</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2025-09</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2025-11</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>2025-12</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>2026-01</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>2026-02</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>2026-03</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>2026-04</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>2026-05</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>2026-06</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2026-07</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2026-08</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>2026-09</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>2026-10</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2026-11</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2026-12</t>
         </is>
       </c>
     </row>
@@ -565,7 +580,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>5333.33</v>
@@ -608,6 +623,15 @@
       </c>
       <c r="U2" s="2" t="n">
         <v>5333.33</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -631,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>10000</v>
@@ -640,19 +664,19 @@
         <v>10000</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>15000</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>10000</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -676,6 +700,15 @@
         <v>0</v>
       </c>
       <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -694,7 +727,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>16000</v>
+        <v>30000</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -706,19 +739,19 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0</v>
+        <v>45000</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>32000</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
@@ -736,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>0</v>
@@ -746,6 +779,15 @@
       </c>
       <c r="U4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>45000</v>
       </c>
     </row>
   </sheetData>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -583,49 +583,49 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6333.33</v>
       </c>
       <c r="W2" s="2" t="n">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -544,65 +544,91 @@
           <t>Fiona Inc</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>34523</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>$16,000.00</t>
-        </is>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1234567345</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>$32,000.00</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>$32,000.00</t>
-        </is>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>$5,333.33</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -614,89 +640,75 @@
           <t>Fiona Inc</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>1234567345</v>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1234567890</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$10,000.00</t>
+        </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$5,333.33</t>
+          <t>$10,000.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$5,333.33</t>
+          <t>$10,000.00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>$5,333.33</t>
+          <t>$15,000.00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>$5,333.33</t>
+          <t>$15,000.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$5,333.33</t>
+          <t>$10,000.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
+          <t>$10,000.00</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -708,45 +720,39 @@
           <t>Fiona Inc</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>1234567890</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>34523</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$16,000.00</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>$15,000.00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>$15,000.00</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
+          <t>$32,000.00</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>$10,000.00</t>
+          <t>$32,000.00</t>
         </is>
       </c>
       <c r="L4" t="n">
@@ -774,254 +780,6 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fiona Inc</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1234567345</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>$5,333.33</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fiona Inc</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1234567890</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>$15,000.00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>$15,000.00</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>$10,000.00</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Fiona Inc</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>34523</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>$16,000.00</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>$32,000.00</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>$32,000.00</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
         <v>0</v>
       </c>
     </row>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,107 +452,92 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-12</t>
+          <t>2026-01</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2026-01</t>
+          <t>2026-02</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2026-02</t>
+          <t>2026-03</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2026-03</t>
+          <t>2026-04</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2026-04</t>
+          <t>2026-05</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2026-05</t>
+          <t>2026-06</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2026-06</t>
+          <t>2026-07</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>2026-07</t>
+          <t>2026-08</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>2026-08</t>
+          <t>2026-09</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>2026-09</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
           <t>2026-10</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2026-11</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2026-12</t>
         </is>
       </c>
     </row>
@@ -580,58 +565,49 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>6333.33</v>
+        <v>5333.33</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>6333.33</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>6333.33</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
     </row>
     <row r="3">
@@ -655,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>10000</v>
@@ -664,31 +640,31 @@
         <v>10000</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>15000</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>10000</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2" t="n">
         <v>0</v>
@@ -700,15 +676,6 @@
         <v>0</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -733,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -742,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>
@@ -769,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
         <v>0</v>
@@ -779,15 +746,6 @@
       </c>
       <c r="U4" s="2" t="n">
         <v>0</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>45000</v>
       </c>
     </row>
   </sheetData>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -694,22 +694,22 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>30000</v>
+        <v>16000</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0</v>
+        <v>32000</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>60000</v>
+        <v>32000</v>
       </c>
       <c r="M4" s="2" t="n">
         <v>0</v>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,90 +452,140 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>2024-07</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2024-08</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2024-09</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2024-10</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2024-11</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2024-12</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2025-01</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2025-02</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>2025-05</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>2025-06</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>2025-07</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>2025-08</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>2025-09</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2025-11</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>2025-12</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>2026-01</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>2026-02</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>2026-03</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>2026-04</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>2026-05</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>2026-06</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>2026-07</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>2026-08</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>2026-09</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>2026-10</t>
         </is>
@@ -565,34 +615,34 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>5333.33</v>
@@ -607,6 +657,36 @@
         <v>5333.33</v>
       </c>
       <c r="U2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="X2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="Y2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="Z2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="AE2" s="2" t="n">
         <v>5333.33</v>
       </c>
     </row>
@@ -616,7 +696,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fiona Inc</t>
+          <t>Papil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -625,34 +705,34 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0</v>
+        <v>9705.110000000001</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>10000</v>
+        <v>9705.110000000001</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>15000</v>
+        <v>9705.110000000001</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>9705.110000000001</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -661,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>0</v>
+        <v>9705.110000000001</v>
       </c>
       <c r="Q3" s="2" t="n">
         <v>0</v>
@@ -670,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>0</v>
+        <v>9705.110000000001</v>
       </c>
       <c r="T3" s="2" t="n">
         <v>0</v>
@@ -678,73 +758,34 @@
       <c r="U3" s="2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Fiona Inc</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>34523</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>32000</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>32000</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="n">
+      <c r="V3" s="2" t="n">
+        <v>9705.110000000001</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="n">
+        <v>9705.110000000001</v>
+      </c>
+      <c r="Z3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>9705.110000000001</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,140 +452,90 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2025-05</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2025-06</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2025-07</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2025-08</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2025-09</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2024-12</t>
+          <t>2025-10</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2025-01</t>
+          <t>2025-11</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2025-02</t>
+          <t>2025-12</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2025-03</t>
+          <t>2026-01</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2025-04</t>
+          <t>2026-02</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2025-05</t>
+          <t>2026-03</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2025-06</t>
+          <t>2026-04</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2025-07</t>
+          <t>2026-05</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>2026-06</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>2025-09</t>
+          <t>2026-07</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>2025-10</t>
+          <t>2026-08</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>2025-11</t>
+          <t>2026-09</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2025-12</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2026-01</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2026-02</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2026-03</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2026-04</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2026-05</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2026-06</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2026-07</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2026-08</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>2026-09</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>2026-10</t>
         </is>
@@ -615,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>0</v>
+        <v>5333.33</v>
       </c>
       <c r="Q2" s="2" t="n">
         <v>5333.33</v>
@@ -657,36 +607,6 @@
         <v>5333.33</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="V2" s="2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="W2" s="2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="X2" s="2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="Z2" s="2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="AA2" s="2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="AB2" s="2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="AC2" s="2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="AD2" s="2" t="n">
-        <v>5333.33</v>
-      </c>
-      <c r="AE2" s="2" t="n">
         <v>5333.33</v>
       </c>
     </row>
@@ -696,7 +616,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Papil</t>
+          <t>Fiona Inc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -705,34 +625,34 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>9705.110000000001</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>9705.110000000001</v>
+        <v>10000</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>9705.110000000001</v>
+        <v>15000</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>9705.110000000001</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -741,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>9705.110000000001</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="2" t="n">
         <v>0</v>
@@ -750,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9705.110000000001</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2" t="n">
         <v>0</v>
@@ -758,34 +678,73 @@
       <c r="U3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="V3" s="2" t="n">
-        <v>9705.110000000001</v>
-      </c>
-      <c r="W3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9705.110000000001</v>
-      </c>
-      <c r="Z3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="2" t="n">
-        <v>9705.110000000001</v>
-      </c>
-      <c r="AC3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="2" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fiona Inc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>34523</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>32000</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>32000</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,90 +452,95 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Project Owner</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>2025-05</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>2025-06</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2025-07</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2025-08</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2025-09</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2025-10</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2025-11</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>2025-12</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>2026-01</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>2026-02</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>2026-03</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>2026-04</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>2026-05</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>2026-06</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>2026-07</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>2026-08</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>2026-09</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>2026-10</t>
         </is>
@@ -555,8 +560,10 @@
           <t>1234567345</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ProjectOwner2</t>
+        </is>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -565,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
         <v>5333.33</v>
@@ -607,6 +614,9 @@
         <v>5333.33</v>
       </c>
       <c r="U2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="V2" s="2" t="n">
         <v>5333.33</v>
       </c>
     </row>
@@ -624,14 +634,16 @@
           <t>1234567890</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ProjectOwner2</t>
+        </is>
       </c>
       <c r="E3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>10000</v>
@@ -640,19 +652,19 @@
         <v>10000</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="J3" s="2" t="n">
         <v>15000</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L3" s="2" t="n">
         <v>10000</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="N3" s="2" t="n">
         <v>0</v>
@@ -676,6 +688,9 @@
         <v>0</v>
       </c>
       <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -693,12 +708,14 @@
           <t>34523</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ProjectOwner1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
         <v>16000</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
@@ -706,11 +723,11 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>32000</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
       </c>
@@ -718,11 +735,11 @@
         <v>0</v>
       </c>
       <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
         <v>32000</v>
       </c>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
@@ -745,6 +762,9 @@
         <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
         <v>0</v>
       </c>
     </row>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ProjectOwner2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
@@ -636,7 +636,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ProjectOwner2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -710,7 +710,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ProjectOwner1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ProjectOwner2</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
@@ -575,49 +575,49 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5333.33</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="3">
@@ -636,7 +636,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ProjectOwner2</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -575,49 +575,49 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="3">
@@ -710,11 +710,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ProjectOwner1</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>32000</v>
+        <v>40000</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ProjectOwner2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
@@ -575,49 +575,49 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
     </row>
     <row r="3">
@@ -636,7 +636,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ProjectOwner2</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">
@@ -710,11 +710,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ProjectOwner1</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E4" s="2" t="n">
-        <v>20000</v>
+        <v>16000</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>40000</v>
+        <v>32000</v>
       </c>
       <c r="N4" s="2" t="n">
         <v>0</v>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ProjectOwner1</t>
         </is>
       </c>
       <c r="E2" s="2" t="n">
@@ -575,49 +575,49 @@
         <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5333.33</v>
+        <v>6666.67</v>
       </c>
     </row>
     <row r="3">
@@ -636,7 +636,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ProjectOwner2</t>
         </is>
       </c>
       <c r="E3" s="2" t="n">

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,47 +457,97 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>2025-05</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>2025-06</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>2025-07</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>2025-08</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>2025-09</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>2025-10</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>2025-11</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>2025-12</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>2026-01</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2026-02</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2026-03</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2026-04</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2026-05</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2026-06</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2026-07</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2026-08</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2026-09</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2026-10</t>
         </is>
       </c>
     </row>
@@ -512,7 +562,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>1234567345</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -520,32 +570,64 @@
           <t>-</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
       </c>
       <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>15000</v>
+        <v>5333.33</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>15000</v>
+        <v>5333.33</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>10000</v>
+        <v>5333.33</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="S2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="T2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="U2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="V2" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="W2" s="2" t="n">
+        <v>5333.33</v>
       </c>
     </row>
     <row r="3">
@@ -559,40 +641,151 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>1234567890</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Fiona Inc</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>34523</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>16000</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2" t="n">
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <v>32000</v>
       </c>
-      <c r="J3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" s="2" t="n">
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
         <v>32000</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/forecast_pivot.xlsx
+++ b/forecast_pivot.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,12 +557,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fiona Inc</t>
+          <t>ClientMilestone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1234567345</t>
+          <t>unconfirmed-2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -585,49 +585,49 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5333.33</v>
+        <v>50000</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>5333.33</v>
+        <v>25000</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>5333.33</v>
+        <v>25000</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>5333.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -636,12 +636,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fiona Inc</t>
+          <t>ClientPeriodic</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>unconfirmed-1</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Confirmed</t>
+          <t>Unconfirmed</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
         <v>10000</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>10000</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>15000</v>
       </c>
       <c r="M3" s="2" t="n">
         <v>10000</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O3" s="2" t="n">
         <v>0</v>
@@ -720,71 +720,150 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>1234567345</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Confirmed</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>5333.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fiona Inc</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>34523</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ProjectOwner1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Confirmed</t>
         </is>
       </c>
-      <c r="F4" s="2" t="n">
-        <v>16000</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>32000</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>32000</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="n">
+      <c r="F5" s="2" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>36000</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>36000</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="n">
         <v>0</v>
       </c>
     </row>
